--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4022556666666667</v>
+        <v>0.5019863333333333</v>
       </c>
       <c r="H2">
-        <v>1.206767</v>
+        <v>1.505959</v>
       </c>
       <c r="I2">
-        <v>0.02112849561592738</v>
+        <v>0.02174419844370831</v>
       </c>
       <c r="J2">
-        <v>0.02112849561592737</v>
+        <v>0.02174419844370831</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.105980333333334</v>
+        <v>6.577645333333334</v>
       </c>
       <c r="N2">
-        <v>15.317941</v>
+        <v>19.732936</v>
       </c>
       <c r="O2">
-        <v>0.04494800244635684</v>
+        <v>0.05888974044969256</v>
       </c>
       <c r="P2">
-        <v>0.04494800244635684</v>
+        <v>0.05888974044969258</v>
       </c>
       <c r="Q2">
-        <v>2.053909522971889</v>
+        <v>3.301888062847111</v>
       </c>
       <c r="R2">
-        <v>18.485185706747</v>
+        <v>29.716992565624</v>
       </c>
       <c r="S2">
-        <v>0.0009496836726325435</v>
+        <v>0.001280510202636591</v>
       </c>
       <c r="T2">
-        <v>0.0009496836726325433</v>
+        <v>0.001280510202636591</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4022556666666667</v>
+        <v>0.5019863333333333</v>
       </c>
       <c r="H3">
-        <v>1.206767</v>
+        <v>1.505959</v>
       </c>
       <c r="I3">
-        <v>0.02112849561592738</v>
+        <v>0.02174419844370831</v>
       </c>
       <c r="J3">
-        <v>0.02112849561592737</v>
+        <v>0.02174419844370831</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>278.476586</v>
       </c>
       <c r="O3">
-        <v>0.8171441754985934</v>
+        <v>0.8310681122594473</v>
       </c>
       <c r="P3">
-        <v>0.8171441754985934</v>
+        <v>0.8310681122594474</v>
       </c>
       <c r="Q3">
-        <v>37.33959491749579</v>
+        <v>46.59714677510822</v>
       </c>
       <c r="R3">
-        <v>336.056354257462</v>
+        <v>419.3743209759739</v>
       </c>
       <c r="S3">
-        <v>0.01726502712960262</v>
+        <v>0.01807090995320748</v>
       </c>
       <c r="T3">
-        <v>0.01726502712960262</v>
+        <v>0.01807090995320748</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.5019863333333333</v>
+      </c>
+      <c r="H4">
+        <v>1.505959</v>
+      </c>
+      <c r="I4">
+        <v>0.02174419844370831</v>
+      </c>
+      <c r="J4">
+        <v>0.02174419844370831</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.4022556666666667</v>
-      </c>
-      <c r="H4">
-        <v>1.206767</v>
-      </c>
-      <c r="I4">
-        <v>0.02112849561592738</v>
-      </c>
-      <c r="J4">
-        <v>0.02112849561592737</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.04351533333333333</v>
+        <v>0.17749</v>
       </c>
       <c r="N4">
-        <v>0.130546</v>
+        <v>0.53247</v>
       </c>
       <c r="O4">
-        <v>0.0003830659699865731</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="P4">
-        <v>0.0003830659699865732</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="Q4">
-        <v>0.01750428942022222</v>
+        <v>0.08909755430333334</v>
       </c>
       <c r="R4">
-        <v>0.157538604782</v>
+        <v>0.8018779887299999</v>
       </c>
       <c r="S4">
-        <v>8.093607667472278E-06</v>
+        <v>3.455305726415501E-05</v>
       </c>
       <c r="T4">
-        <v>8.09360766747228E-06</v>
+        <v>3.4553057264155E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4022556666666667</v>
+        <v>0.5019863333333333</v>
       </c>
       <c r="H5">
-        <v>1.206767</v>
+        <v>1.505959</v>
       </c>
       <c r="I5">
-        <v>0.02112849561592738</v>
+        <v>0.02174419844370831</v>
       </c>
       <c r="J5">
-        <v>0.02112849561592737</v>
+        <v>0.02174419844370831</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.62246733333333</v>
+        <v>12.09091866666667</v>
       </c>
       <c r="N5">
-        <v>46.867402</v>
+        <v>36.272756</v>
       </c>
       <c r="O5">
-        <v>0.1375247560850632</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="P5">
-        <v>0.1375247560850632</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="Q5">
-        <v>6.284226012148223</v>
+        <v>6.069475928111555</v>
       </c>
       <c r="R5">
-        <v>56.558034109334</v>
+        <v>54.62528335300399</v>
       </c>
       <c r="S5">
-        <v>0.00290569120602474</v>
+        <v>0.002353812637701132</v>
       </c>
       <c r="T5">
-        <v>0.002905691206024739</v>
+        <v>0.002353812637701133</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.530229333333334</v>
+        <v>0.5019863333333333</v>
       </c>
       <c r="H6">
-        <v>22.590688</v>
+        <v>1.505959</v>
       </c>
       <c r="I6">
-        <v>0.395525608811629</v>
+        <v>0.02174419844370831</v>
       </c>
       <c r="J6">
-        <v>0.395525608811629</v>
+        <v>0.02174419844370831</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>5.105980333333334</v>
+        <v>0.02266633333333333</v>
       </c>
       <c r="N6">
-        <v>15.317941</v>
+        <v>0.067999</v>
       </c>
       <c r="O6">
-        <v>0.04494800244635684</v>
+        <v>0.0002029319641455607</v>
       </c>
       <c r="P6">
-        <v>0.04494800244635684</v>
+        <v>0.0002029319641455608</v>
       </c>
       <c r="Q6">
-        <v>38.44920288148978</v>
+        <v>0.01137818956011111</v>
       </c>
       <c r="R6">
-        <v>346.042825933408</v>
+        <v>0.102403706041</v>
       </c>
       <c r="S6">
-        <v>0.01777808603246188</v>
+        <v>4.412592898952572E-06</v>
       </c>
       <c r="T6">
-        <v>0.01777808603246188</v>
+        <v>4.412592898952572E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>22.590688</v>
       </c>
       <c r="I7">
-        <v>0.395525608811629</v>
+        <v>0.3261817903753688</v>
       </c>
       <c r="J7">
-        <v>0.395525608811629</v>
+        <v>0.3261817903753688</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>92.82552866666667</v>
+        <v>6.577645333333334</v>
       </c>
       <c r="N7">
-        <v>278.476586</v>
+        <v>19.732936</v>
       </c>
       <c r="O7">
-        <v>0.8171441754985934</v>
+        <v>0.05888974044969256</v>
       </c>
       <c r="P7">
-        <v>0.8171441754985934</v>
+        <v>0.05888974044969258</v>
       </c>
       <c r="Q7">
-        <v>698.9975188479076</v>
+        <v>49.53117783332979</v>
       </c>
       <c r="R7">
-        <v>6290.977669631168</v>
+        <v>445.780600499968</v>
       </c>
       <c r="S7">
-        <v>0.3232014475009578</v>
+        <v>0.0192087609746215</v>
       </c>
       <c r="T7">
-        <v>0.3232014475009578</v>
+        <v>0.0192087609746215</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>22.590688</v>
       </c>
       <c r="I8">
-        <v>0.395525608811629</v>
+        <v>0.3261817903753688</v>
       </c>
       <c r="J8">
-        <v>0.395525608811629</v>
+        <v>0.3261817903753688</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.04351533333333333</v>
+        <v>92.82552866666667</v>
       </c>
       <c r="N8">
-        <v>0.130546</v>
+        <v>278.476586</v>
       </c>
       <c r="O8">
-        <v>0.0003830659699865731</v>
+        <v>0.8310681122594473</v>
       </c>
       <c r="P8">
-        <v>0.0003830659699865732</v>
+        <v>0.8310681122594474</v>
       </c>
       <c r="Q8">
-        <v>0.3276804395164444</v>
+        <v>698.9975188479076</v>
       </c>
       <c r="R8">
-        <v>2.949123955648</v>
+        <v>6290.977669631168</v>
       </c>
       <c r="S8">
-        <v>0.0001515124009939565</v>
+        <v>0.2710792847806645</v>
       </c>
       <c r="T8">
-        <v>0.0001515124009939566</v>
+        <v>0.2710792847806645</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>22.590688</v>
       </c>
       <c r="I9">
-        <v>0.395525608811629</v>
+        <v>0.3261817903753688</v>
       </c>
       <c r="J9">
-        <v>0.395525608811629</v>
+        <v>0.3261817903753688</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>15.62246733333333</v>
+        <v>0.17749</v>
       </c>
       <c r="N9">
-        <v>46.867402</v>
+        <v>0.53247</v>
       </c>
       <c r="O9">
-        <v>0.1375247560850632</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="P9">
-        <v>0.1375247560850632</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="Q9">
-        <v>117.6407617725084</v>
+        <v>1.336540404373334</v>
       </c>
       <c r="R9">
-        <v>1058.766855952576</v>
+        <v>12.02886363936</v>
       </c>
       <c r="S9">
-        <v>0.0543945628772154</v>
+        <v>0.0005183257552832842</v>
       </c>
       <c r="T9">
-        <v>0.0543945628772154</v>
+        <v>0.0005183257552832841</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.768124</v>
+        <v>7.530229333333334</v>
       </c>
       <c r="H10">
-        <v>11.304372</v>
+        <v>22.590688</v>
       </c>
       <c r="I10">
-        <v>0.1979208697642645</v>
+        <v>0.3261817903753688</v>
       </c>
       <c r="J10">
-        <v>0.1979208697642645</v>
+        <v>0.3261817903753688</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.105980333333334</v>
+        <v>12.09091866666667</v>
       </c>
       <c r="N10">
-        <v>15.317941</v>
+        <v>36.272756</v>
       </c>
       <c r="O10">
-        <v>0.04494800244635684</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="P10">
-        <v>0.04494800244635684</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="Q10">
-        <v>19.23996703756134</v>
+        <v>91.04739041068089</v>
       </c>
       <c r="R10">
-        <v>173.159703338052</v>
+        <v>819.426513696128</v>
       </c>
       <c r="S10">
-        <v>0.008896147738349234</v>
+        <v>0.0353092261534101</v>
       </c>
       <c r="T10">
-        <v>0.008896147738349234</v>
+        <v>0.0353092261534101</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.768124</v>
+        <v>7.530229333333334</v>
       </c>
       <c r="H11">
-        <v>11.304372</v>
+        <v>22.590688</v>
       </c>
       <c r="I11">
-        <v>0.1979208697642645</v>
+        <v>0.3261817903753688</v>
       </c>
       <c r="J11">
-        <v>0.1979208697642645</v>
+        <v>0.3261817903753688</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>92.82552866666667</v>
+        <v>0.02266633333333333</v>
       </c>
       <c r="N11">
-        <v>278.476586</v>
+        <v>0.067999</v>
       </c>
       <c r="O11">
-        <v>0.8171441754985934</v>
+        <v>0.0002029319641455607</v>
       </c>
       <c r="P11">
-        <v>0.8171441754985934</v>
+        <v>0.0002029319641455608</v>
       </c>
       <c r="Q11">
-        <v>349.7781023815547</v>
+        <v>0.1706826881457778</v>
       </c>
       <c r="R11">
-        <v>3148.002921433992</v>
+        <v>1.536144193312</v>
       </c>
       <c r="S11">
-        <v>0.1617298859374844</v>
+        <v>6.619271138938915E-05</v>
       </c>
       <c r="T11">
-        <v>0.1617298859374844</v>
+        <v>6.619271138938915E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.768124</v>
+        <v>3.106435333333333</v>
       </c>
       <c r="H12">
-        <v>11.304372</v>
+        <v>9.319305999999999</v>
       </c>
       <c r="I12">
-        <v>0.1979208697642645</v>
+        <v>0.1345593333029927</v>
       </c>
       <c r="J12">
-        <v>0.1979208697642645</v>
+        <v>0.1345593333029926</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.04351533333333333</v>
+        <v>6.577645333333334</v>
       </c>
       <c r="N12">
-        <v>0.130546</v>
+        <v>19.732936</v>
       </c>
       <c r="O12">
-        <v>0.0003830659699865731</v>
+        <v>0.05888974044969256</v>
       </c>
       <c r="P12">
-        <v>0.0003830659699865732</v>
+        <v>0.05888974044969258</v>
       </c>
       <c r="Q12">
-        <v>0.1639711719013333</v>
+        <v>20.43302987360178</v>
       </c>
       <c r="R12">
-        <v>1.475740547112</v>
+        <v>183.897268862416</v>
       </c>
       <c r="S12">
-        <v>7.581674995683419E-05</v>
+        <v>0.007924164213296911</v>
       </c>
       <c r="T12">
-        <v>7.581674995683422E-05</v>
+        <v>0.007924164213296911</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.768124</v>
+        <v>3.106435333333333</v>
       </c>
       <c r="H13">
-        <v>11.304372</v>
+        <v>9.319305999999999</v>
       </c>
       <c r="I13">
-        <v>0.1979208697642645</v>
+        <v>0.1345593333029927</v>
       </c>
       <c r="J13">
-        <v>0.1979208697642645</v>
+        <v>0.1345593333029926</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.62246733333333</v>
+        <v>92.82552866666667</v>
       </c>
       <c r="N13">
-        <v>46.867402</v>
+        <v>278.476586</v>
       </c>
       <c r="O13">
-        <v>0.1375247560850632</v>
+        <v>0.8310681122594473</v>
       </c>
       <c r="P13">
-        <v>0.1375247560850632</v>
+        <v>0.8310681122594474</v>
       </c>
       <c r="Q13">
-        <v>58.86739409794934</v>
+        <v>288.3565020854796</v>
       </c>
       <c r="R13">
-        <v>529.806546881544</v>
+        <v>2595.208518769316</v>
       </c>
       <c r="S13">
-        <v>0.02721901933847403</v>
+        <v>0.1118279711150079</v>
       </c>
       <c r="T13">
-        <v>0.02721901933847403</v>
+        <v>0.1118279711150079</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,61 +1284,61 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.853099333333333</v>
+        <v>3.106435333333333</v>
       </c>
       <c r="H14">
-        <v>8.559298</v>
+        <v>9.319305999999999</v>
       </c>
       <c r="I14">
-        <v>0.1498591611043523</v>
+        <v>0.1345593333029927</v>
       </c>
       <c r="J14">
-        <v>0.1498591611043523</v>
+        <v>0.1345593333029926</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>5.105980333333334</v>
+        <v>0.17749</v>
       </c>
       <c r="N14">
-        <v>15.317941</v>
+        <v>0.53247</v>
       </c>
       <c r="O14">
-        <v>0.04494800244635684</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="P14">
-        <v>0.04494800244635684</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="Q14">
-        <v>14.56786908504645</v>
+        <v>0.5513612073133334</v>
       </c>
       <c r="R14">
-        <v>131.110821765418</v>
+        <v>4.96225086582</v>
       </c>
       <c r="S14">
-        <v>0.006735869939927411</v>
+        <v>0.0002138242235546807</v>
       </c>
       <c r="T14">
-        <v>0.006735869939927411</v>
+        <v>0.0002138242235546806</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.853099333333333</v>
+        <v>3.106435333333333</v>
       </c>
       <c r="H15">
-        <v>8.559298</v>
+        <v>9.319305999999999</v>
       </c>
       <c r="I15">
-        <v>0.1498591611043523</v>
+        <v>0.1345593333029927</v>
       </c>
       <c r="J15">
-        <v>0.1498591611043523</v>
+        <v>0.1345593333029926</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>92.82552866666667</v>
+        <v>12.09091866666667</v>
       </c>
       <c r="N15">
-        <v>278.476586</v>
+        <v>36.272756</v>
       </c>
       <c r="O15">
-        <v>0.8171441754985934</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="P15">
-        <v>0.8171441754985934</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="Q15">
-        <v>264.8404539551809</v>
+        <v>37.55965695859289</v>
       </c>
       <c r="R15">
-        <v>2383.564085596628</v>
+        <v>338.036912627336</v>
       </c>
       <c r="S15">
-        <v>0.1224565406415268</v>
+        <v>0.01456606736133187</v>
       </c>
       <c r="T15">
-        <v>0.1224565406415268</v>
+        <v>0.01456606736133188</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.853099333333333</v>
+        <v>3.106435333333333</v>
       </c>
       <c r="H16">
-        <v>8.559298</v>
+        <v>9.319305999999999</v>
       </c>
       <c r="I16">
-        <v>0.1498591611043523</v>
+        <v>0.1345593333029927</v>
       </c>
       <c r="J16">
-        <v>0.1498591611043523</v>
+        <v>0.1345593333029926</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.04351533333333333</v>
+        <v>0.02266633333333333</v>
       </c>
       <c r="N16">
-        <v>0.130546</v>
+        <v>0.067999</v>
       </c>
       <c r="O16">
-        <v>0.0003830659699865731</v>
+        <v>0.0002029319641455607</v>
       </c>
       <c r="P16">
-        <v>0.0003830659699865732</v>
+        <v>0.0002029319641455608</v>
       </c>
       <c r="Q16">
-        <v>0.1241535685231111</v>
+        <v>0.07041149874377778</v>
       </c>
       <c r="R16">
-        <v>1.117382116708</v>
+        <v>0.633703488694</v>
       </c>
       <c r="S16">
-        <v>5.740594490981285E-05</v>
+        <v>2.730638980129346E-05</v>
       </c>
       <c r="T16">
-        <v>5.740594490981286E-05</v>
+        <v>2.730638980129346E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.853099333333333</v>
+        <v>5.384061333333332</v>
       </c>
       <c r="H17">
-        <v>8.559298</v>
+        <v>16.152184</v>
       </c>
       <c r="I17">
-        <v>0.1498591611043523</v>
+        <v>0.2332176999475352</v>
       </c>
       <c r="J17">
-        <v>0.1498591611043523</v>
+        <v>0.2332176999475352</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,33 +1488,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.62246733333333</v>
+        <v>6.577645333333334</v>
       </c>
       <c r="N17">
-        <v>46.867402</v>
+        <v>19.732936</v>
       </c>
       <c r="O17">
-        <v>0.1375247560850632</v>
+        <v>0.05888974044969256</v>
       </c>
       <c r="P17">
-        <v>0.1375247560850632</v>
+        <v>0.05888974044969258</v>
       </c>
       <c r="Q17">
-        <v>44.57245113375511</v>
+        <v>35.41444590358044</v>
       </c>
       <c r="R17">
-        <v>401.152060203796</v>
+        <v>318.730013132224</v>
       </c>
       <c r="S17">
-        <v>0.02060934457798824</v>
+        <v>0.01373412981818463</v>
       </c>
       <c r="T17">
-        <v>0.02060934457798824</v>
+        <v>0.01373412981818463</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.484829666666667</v>
+        <v>5.384061333333332</v>
       </c>
       <c r="H18">
-        <v>13.454489</v>
+        <v>16.152184</v>
       </c>
       <c r="I18">
-        <v>0.2355658647038269</v>
+        <v>0.2332176999475352</v>
       </c>
       <c r="J18">
-        <v>0.2355658647038269</v>
+        <v>0.2332176999475352</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.105980333333334</v>
+        <v>92.82552866666667</v>
       </c>
       <c r="N18">
-        <v>15.317941</v>
+        <v>278.476586</v>
       </c>
       <c r="O18">
-        <v>0.04494800244635684</v>
+        <v>0.8310681122594473</v>
       </c>
       <c r="P18">
-        <v>0.04494800244635684</v>
+        <v>0.8310681122594474</v>
       </c>
       <c r="Q18">
-        <v>22.8994520763499</v>
+        <v>499.7783396404248</v>
       </c>
       <c r="R18">
-        <v>206.095068687149</v>
+        <v>4498.005056763824</v>
       </c>
       <c r="S18">
-        <v>0.01058821506298578</v>
+        <v>0.1938197936408883</v>
       </c>
       <c r="T18">
-        <v>0.01058821506298577</v>
+        <v>0.1938197936408884</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,51 +1594,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.484829666666667</v>
+        <v>5.384061333333332</v>
       </c>
       <c r="H19">
-        <v>13.454489</v>
+        <v>16.152184</v>
       </c>
       <c r="I19">
-        <v>0.2355658647038269</v>
+        <v>0.2332176999475352</v>
       </c>
       <c r="J19">
-        <v>0.2355658647038269</v>
+        <v>0.2332176999475352</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>92.82552866666667</v>
+        <v>0.17749</v>
       </c>
       <c r="N19">
-        <v>278.476586</v>
+        <v>0.53247</v>
       </c>
       <c r="O19">
-        <v>0.8171441754985934</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="P19">
-        <v>0.8171441754985934</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="Q19">
-        <v>416.3066847882839</v>
+        <v>0.9556170460533332</v>
       </c>
       <c r="R19">
-        <v>3746.760163094554</v>
+        <v>8.600553414479998</v>
       </c>
       <c r="S19">
-        <v>0.1924912742890219</v>
+        <v>0.0003705992916760471</v>
       </c>
       <c r="T19">
-        <v>0.1924912742890218</v>
+        <v>0.0003705992916760471</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,108 +1656,418 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.484829666666667</v>
+        <v>5.384061333333332</v>
       </c>
       <c r="H20">
-        <v>13.454489</v>
+        <v>16.152184</v>
       </c>
       <c r="I20">
-        <v>0.2355658647038269</v>
+        <v>0.2332176999475352</v>
       </c>
       <c r="J20">
-        <v>0.2355658647038269</v>
+        <v>0.2332176999475352</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.04351533333333333</v>
+        <v>12.09091866666667</v>
       </c>
       <c r="N20">
-        <v>0.130546</v>
+        <v>36.272756</v>
       </c>
       <c r="O20">
-        <v>0.0003830659699865731</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="P20">
-        <v>0.0003830659699865732</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="Q20">
-        <v>0.1951588578882222</v>
+        <v>65.09824767767822</v>
       </c>
       <c r="R20">
-        <v>1.756429720994</v>
+        <v>585.884229099104</v>
       </c>
       <c r="S20">
-        <v>9.02372664584973E-05</v>
+        <v>0.02524584987086237</v>
       </c>
       <c r="T20">
-        <v>9.023726645849731E-05</v>
+        <v>0.02524584987086238</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.384061333333332</v>
+      </c>
+      <c r="H21">
+        <v>16.152184</v>
+      </c>
+      <c r="I21">
+        <v>0.2332176999475352</v>
+      </c>
+      <c r="J21">
+        <v>0.2332176999475352</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.02266633333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.067999</v>
+      </c>
+      <c r="O21">
+        <v>0.0002029319641455607</v>
+      </c>
+      <c r="P21">
+        <v>0.0002029319641455608</v>
+      </c>
+      <c r="Q21">
+        <v>0.1220369288684444</v>
+      </c>
+      <c r="R21">
+        <v>1.098332359816</v>
+      </c>
+      <c r="S21">
+        <v>4.732732592386336E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.732732592386337E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.563276999999999</v>
+      </c>
+      <c r="H22">
+        <v>19.689831</v>
+      </c>
+      <c r="I22">
+        <v>0.2842969779303949</v>
+      </c>
+      <c r="J22">
+        <v>0.2842969779303949</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.577645333333334</v>
+      </c>
+      <c r="N22">
+        <v>19.732936</v>
+      </c>
+      <c r="O22">
+        <v>0.05888974044969256</v>
+      </c>
+      <c r="P22">
+        <v>0.05888974044969258</v>
+      </c>
+      <c r="Q22">
+        <v>43.170908330424</v>
+      </c>
+      <c r="R22">
+        <v>388.538174973816</v>
+      </c>
+      <c r="S22">
+        <v>0.01674217524095293</v>
+      </c>
+      <c r="T22">
+        <v>0.01674217524095293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.563276999999999</v>
+      </c>
+      <c r="H23">
+        <v>19.689831</v>
+      </c>
+      <c r="I23">
+        <v>0.2842969779303949</v>
+      </c>
+      <c r="J23">
+        <v>0.2842969779303949</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>92.82552866666667</v>
+      </c>
+      <c r="N23">
+        <v>278.476586</v>
+      </c>
+      <c r="O23">
+        <v>0.8310681122594473</v>
+      </c>
+      <c r="P23">
+        <v>0.8310681122594474</v>
+      </c>
+      <c r="Q23">
+        <v>609.239657310774</v>
+      </c>
+      <c r="R23">
+        <v>5483.156915796965</v>
+      </c>
+      <c r="S23">
+        <v>0.2362701527696791</v>
+      </c>
+      <c r="T23">
+        <v>0.2362701527696791</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.563276999999999</v>
+      </c>
+      <c r="H24">
+        <v>19.689831</v>
+      </c>
+      <c r="I24">
+        <v>0.2842969779303949</v>
+      </c>
+      <c r="J24">
+        <v>0.2842969779303949</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.17749</v>
+      </c>
+      <c r="N24">
+        <v>0.53247</v>
+      </c>
+      <c r="O24">
+        <v>0.001589070176746522</v>
+      </c>
+      <c r="P24">
+        <v>0.001589070176746522</v>
+      </c>
+      <c r="Q24">
+        <v>1.16491603473</v>
+      </c>
+      <c r="R24">
+        <v>10.48424431257</v>
+      </c>
+      <c r="S24">
+        <v>0.0004517678489683547</v>
+      </c>
+      <c r="T24">
+        <v>0.0004517678489683545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>4.484829666666667</v>
-      </c>
-      <c r="H21">
-        <v>13.454489</v>
-      </c>
-      <c r="I21">
-        <v>0.2355658647038269</v>
-      </c>
-      <c r="J21">
-        <v>0.2355658647038269</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>15.62246733333333</v>
-      </c>
-      <c r="N21">
-        <v>46.867402</v>
-      </c>
-      <c r="O21">
-        <v>0.1375247560850632</v>
-      </c>
-      <c r="P21">
-        <v>0.1375247560850632</v>
-      </c>
-      <c r="Q21">
-        <v>70.06410496306422</v>
-      </c>
-      <c r="R21">
-        <v>630.576944667578</v>
-      </c>
-      <c r="S21">
-        <v>0.03239613808536079</v>
-      </c>
-      <c r="T21">
-        <v>0.03239613808536079</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.563276999999999</v>
+      </c>
+      <c r="H25">
+        <v>19.689831</v>
+      </c>
+      <c r="I25">
+        <v>0.2842969779303949</v>
+      </c>
+      <c r="J25">
+        <v>0.2842969779303949</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.09091866666667</v>
+      </c>
+      <c r="N25">
+        <v>36.272756</v>
+      </c>
+      <c r="O25">
+        <v>0.108250145149968</v>
+      </c>
+      <c r="P25">
+        <v>0.108250145149968</v>
+      </c>
+      <c r="Q25">
+        <v>79.35604839380399</v>
+      </c>
+      <c r="R25">
+        <v>714.2044355442359</v>
+      </c>
+      <c r="S25">
+        <v>0.03077518912666249</v>
+      </c>
+      <c r="T25">
+        <v>0.03077518912666249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.563276999999999</v>
+      </c>
+      <c r="H26">
+        <v>19.689831</v>
+      </c>
+      <c r="I26">
+        <v>0.2842969779303949</v>
+      </c>
+      <c r="J26">
+        <v>0.2842969779303949</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.02266633333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.067999</v>
+      </c>
+      <c r="O26">
+        <v>0.0002029319641455607</v>
+      </c>
+      <c r="P26">
+        <v>0.0002029319641455608</v>
+      </c>
+      <c r="Q26">
+        <v>0.148765424241</v>
+      </c>
+      <c r="R26">
+        <v>1.338888818169</v>
+      </c>
+      <c r="S26">
+        <v>5.769294413206217E-05</v>
+      </c>
+      <c r="T26">
+        <v>5.769294413206217E-05</v>
       </c>
     </row>
   </sheetData>
